--- a/Team-Data/2007-08/2-27-2007-08.xlsx
+++ b/Team-Data/2007-08/2-27-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.429</v>
+        <v>0.418</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
         <v>79.3</v>
@@ -690,34 +757,34 @@
         <v>0.442</v>
       </c>
       <c r="L2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>11.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O2" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>12.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
         <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V2" t="n">
         <v>15.6</v>
@@ -729,22 +796,22 @@
         <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -759,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -774,13 +841,13 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -789,13 +856,13 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV2" t="n">
         <v>25</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.786</v>
+        <v>0.782</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,19 +933,19 @@
         <v>35.9</v>
       </c>
       <c r="J3" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O3" t="n">
         <v>20.9</v>
@@ -887,25 +954,25 @@
         <v>27.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S3" t="n">
         <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -914,19 +981,19 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA3" t="n">
         <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -962,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -980,13 +1047,13 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
         <v>0.355</v>
@@ -1075,16 +1142,16 @@
         <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
         <v>7.4</v>
@@ -1093,22 +1160,22 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.9</v>
+        <v>-5.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1126,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1135,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1147,25 +1214,25 @@
         <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
       </c>
       <c r="AS4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT4" t="n">
         <v>26</v>
       </c>
-      <c r="AT4" t="n">
-        <v>25</v>
-      </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>11</v>
@@ -1174,16 +1241,16 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
       </c>
       <c r="BB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC4" t="n">
         <v>24</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>26</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1314,13 +1381,13 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1341,13 +1408,13 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>14</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1356,10 +1423,10 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1415,7 +1482,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1424,7 +1491,7 @@
         <v>19.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O6" t="n">
         <v>17.9</v>
@@ -1433,19 +1500,19 @@
         <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
         <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
         <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V6" t="n">
         <v>14.4</v>
@@ -1463,13 +1530,13 @@
         <v>21.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
         <v>2</v>
@@ -1487,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1502,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
@@ -1526,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>13</v>
@@ -1541,13 +1608,13 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>7</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1723,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -1758,91 +1825,91 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.457</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
         <v>18.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>7.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.6</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1854,19 +1921,19 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1887,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
         <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.724</v>
+        <v>0.737</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
@@ -1970,13 +2037,13 @@
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
         <v>0.762</v>
@@ -1991,7 +2058,7 @@
         <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2012,10 +2079,10 @@
         <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
@@ -2030,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2063,7 +2130,7 @@
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2242,10 +2309,10 @@
         <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
@@ -2257,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,13 +2488,13 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.379</v>
+        <v>0.386</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J12" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,16 +2580,16 @@
         <v>8.9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N12" t="n">
         <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
         <v>0.77</v>
@@ -2534,46 +2601,46 @@
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>22.8</v>
       </c>
       <c r="V12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
         <v>22</v>
       </c>
-      <c r="AF12" t="n">
-        <v>23</v>
-      </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2582,10 +2649,10 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,13 +2661,13 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
@@ -2618,13 +2685,13 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O13" t="n">
         <v>21</v>
@@ -2707,10 +2774,10 @@
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S13" t="n">
         <v>30.9</v>
@@ -2734,25 +2801,25 @@
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>24</v>
@@ -2767,16 +2834,16 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
         <v>28</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
@@ -2785,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>28</v>
@@ -2794,31 +2861,31 @@
         <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX13" t="n">
         <v>10</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AY13" t="n">
         <v>19</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>22</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2970,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -2979,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3125,16 +3192,16 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,7 +3210,7 @@
         <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3185,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,13 +3374,13 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3352,10 +3419,10 @@
         <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3367,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-6.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
@@ -3492,13 +3559,13 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
@@ -3516,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV17" t="n">
         <v>15</v>
@@ -3546,10 +3613,10 @@
         <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,37 +3663,37 @@
         <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
         <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S18" t="n">
         <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
         <v>19.3</v>
@@ -3635,7 +3702,7 @@
         <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
@@ -3644,25 +3711,25 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA18" t="n">
         <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.3</v>
+        <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -3674,10 +3741,10 @@
         <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,34 +3753,34 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>18</v>
@@ -3874,13 +3941,13 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3895,7 +3962,7 @@
         <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3910,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
@@ -3972,25 +4039,25 @@
         <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O20" t="n">
         <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>30.8</v>
       </c>
       <c r="T20" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
@@ -3999,52 +4066,52 @@
         <v>12.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
@@ -4062,22 +4129,22 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.316</v>
+        <v>0.304</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
         <v>17.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P21" t="n">
         <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R21" t="n">
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V21" t="n">
         <v>15.5</v>
@@ -4184,7 +4251,7 @@
         <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
         <v>5.3</v>
@@ -4196,13 +4263,13 @@
         <v>21.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.8</v>
+        <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,25 +4284,25 @@
         <v>8</v>
       </c>
       <c r="AI21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK21" t="n">
         <v>27</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>24</v>
-      </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
@@ -4244,10 +4311,10 @@
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4268,16 +4335,16 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
         <v>37</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.617</v>
+        <v>0.627</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
         <v>9.300000000000001</v>
@@ -4336,7 +4403,7 @@
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O22" t="n">
         <v>21.2</v>
@@ -4345,7 +4412,7 @@
         <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
         <v>9.699999999999999</v>
@@ -4360,7 +4427,7 @@
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W22" t="n">
         <v>6.2</v>
@@ -4378,19 +4445,19 @@
         <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.1</v>
+        <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4417,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4426,19 +4493,19 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
@@ -4450,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
         <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.448</v>
+        <v>0.439</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.457</v>
@@ -4518,19 +4585,19 @@
         <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O23" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.705</v>
+        <v>0.703</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
         <v>29.1</v>
@@ -4539,37 +4606,37 @@
         <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
         <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF23" t="n">
         <v>18</v>
@@ -4581,13 +4648,13 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,13 +4666,13 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4617,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4626,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>15</v>
@@ -4641,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
         <v>39</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>0.672</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.493</v>
@@ -4697,16 +4764,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O24" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.788</v>
@@ -4718,16 +4785,16 @@
         <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
         <v>26.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X24" t="n">
         <v>6.9</v>
@@ -4742,10 +4809,10 @@
         <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AD24" t="n">
         <v>2</v>
@@ -4754,10 +4821,10 @@
         <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -4781,13 +4848,13 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4805,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4814,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.517</v>
+        <v>0.509</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J25" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.449</v>
@@ -4879,31 +4946,31 @@
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
         <v>23.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T25" t="n">
         <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V25" t="n">
         <v>13.2</v>
@@ -4921,13 +4988,13 @@
         <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
         <v>2</v>
@@ -4945,22 +5012,22 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,13 +5036,13 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>29</v>
@@ -4993,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5002,10 +5069,10 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.455</v>
@@ -5064,31 +5131,31 @@
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O26" t="n">
         <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T26" t="n">
         <v>40.3</v>
       </c>
       <c r="U26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W26" t="n">
         <v>7.9</v>
@@ -5097,49 +5164,49 @@
         <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="AC26" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL26" t="n">
         <v>14</v>
       </c>
-      <c r="AL26" t="n">
-        <v>15</v>
-      </c>
       <c r="AM26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>9</v>
@@ -5148,19 +5215,19 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5178,7 +5245,7 @@
         <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="n">
-        <v>0.263</v>
+        <v>0.268</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,10 +5483,10 @@
         <v>37.6</v>
       </c>
       <c r="J28" t="n">
-        <v>85.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L28" t="n">
         <v>4.2</v>
@@ -5428,7 +5495,7 @@
         <v>12.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O28" t="n">
         <v>17.4</v>
@@ -5437,19 +5504,19 @@
         <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R28" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>16.2</v>
@@ -5458,25 +5525,25 @@
         <v>6.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
         <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.4</v>
+        <v>-6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,25 +5555,25 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5515,10 +5582,10 @@
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR28" t="n">
         <v>11</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>7</v>
       </c>
       <c r="AS28" t="n">
         <v>1</v>
@@ -5527,31 +5594,31 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
       </c>
       <c r="AW28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY28" t="n">
         <v>24</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5604,37 +5671,37 @@
         <v>0.465</v>
       </c>
       <c r="L29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M29" t="n">
         <v>18.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.418</v>
+        <v>0.422</v>
       </c>
       <c r="O29" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
         <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5643,25 +5710,25 @@
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z29" t="n">
         <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -5682,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5694,19 +5761,19 @@
         <v>26</v>
       </c>
       <c r="AP29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>6</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M30" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.4</v>
@@ -5837,13 +5904,13 @@
         <v>105.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5852,13 +5919,13 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,7 +5952,7 @@
         <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
         <v>22</v>
@@ -5894,13 +5961,13 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,13 +6104,13 @@
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,13 +6119,13 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,10 +6134,10 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6097,7 +6164,7 @@
         <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-27-2007-08</t>
+          <t>2008-02-27</t>
         </is>
       </c>
     </row>
